--- a/src/ITR_examples/data/20220927 ITR V2 Sample Data.xlsx
+++ b/src/ITR_examples/data/20220927 ITR V2 Sample Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Documents/GitHub/MichaelTiemannOSC/ITR/examples/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Documents/GitHub/MichaelTiemannOSC/ITR/test/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDB86B2-23D5-D540-8374-B23B24CAF070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A408095E-B862-2046-A18B-B0F33EFA9821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20260" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
